--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H2">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>211.0349870379065</v>
+        <v>901.2136554804388</v>
       </c>
       <c r="R2">
-        <v>211.0349870379065</v>
+        <v>8110.922899323948</v>
       </c>
       <c r="S2">
-        <v>7.942944966055888E-05</v>
+        <v>0.0003252049684020411</v>
       </c>
       <c r="T2">
-        <v>7.942944966055888E-05</v>
+        <v>0.0003252049684020411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H3">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>388.5417659010291</v>
+        <v>1484.672150553085</v>
       </c>
       <c r="R3">
-        <v>388.5417659010291</v>
+        <v>13362.04935497776</v>
       </c>
       <c r="S3">
-        <v>0.0001462395362438979</v>
+        <v>0.0005357472746577642</v>
       </c>
       <c r="T3">
-        <v>0.0001462395362438979</v>
+        <v>0.0005357472746577644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H4">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>147.5081954383739</v>
+        <v>595.6322954487646</v>
       </c>
       <c r="R4">
-        <v>147.5081954383739</v>
+        <v>5360.690659038881</v>
       </c>
       <c r="S4">
-        <v>5.551920536279449E-05</v>
+        <v>0.0002149352494191707</v>
       </c>
       <c r="T4">
-        <v>5.551920536279449E-05</v>
+        <v>0.0002149352494191708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H5">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>334.7884690432742</v>
+        <v>1314.046683044834</v>
       </c>
       <c r="R5">
-        <v>334.7884690432742</v>
+        <v>11826.42014740351</v>
       </c>
       <c r="S5">
-        <v>0.0001260078445856554</v>
+        <v>0.0004741766921081433</v>
       </c>
       <c r="T5">
-        <v>0.0001260078445856554</v>
+        <v>0.0004741766921081433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>510192.5522725163</v>
+        <v>571107.9776635316</v>
       </c>
       <c r="R6">
-        <v>510192.5522725163</v>
+        <v>5139971.798971784</v>
       </c>
       <c r="S6">
-        <v>0.1920265175775941</v>
+        <v>0.2060855943546604</v>
       </c>
       <c r="T6">
-        <v>0.1920265175775941</v>
+        <v>0.2060855943546605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>939328.2033083449</v>
+        <v>940851.3777387418</v>
       </c>
       <c r="R7">
-        <v>939328.2033083449</v>
+        <v>8467662.399648678</v>
       </c>
       <c r="S7">
-        <v>0.3535447997825202</v>
+        <v>0.3395083293599578</v>
       </c>
       <c r="T7">
-        <v>0.3535447997825202</v>
+        <v>0.3395083293599579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>356611.876391374</v>
+        <v>377458.0573831692</v>
       </c>
       <c r="R8">
-        <v>356611.876391374</v>
+        <v>3397122.516448522</v>
       </c>
       <c r="S8">
-        <v>0.1342217491126162</v>
+        <v>0.136206586393712</v>
       </c>
       <c r="T8">
-        <v>0.1342217491126162</v>
+        <v>0.136206586393712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>809375.6674665314</v>
+        <v>832724.3369488604</v>
       </c>
       <c r="R9">
-        <v>809375.6674665314</v>
+        <v>7494519.032539745</v>
       </c>
       <c r="S9">
-        <v>0.3046332020006072</v>
+        <v>0.3004904442340008</v>
       </c>
       <c r="T9">
-        <v>0.3046332020006072</v>
+        <v>0.3004904442340009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H10">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>87.64761389495622</v>
+        <v>125.8631683474787</v>
       </c>
       <c r="R10">
-        <v>87.64761389495622</v>
+        <v>1132.768515127308</v>
       </c>
       <c r="S10">
-        <v>3.298885096473143E-05</v>
+        <v>4.541800652543598E-05</v>
       </c>
       <c r="T10">
-        <v>3.298885096473143E-05</v>
+        <v>4.541800652543599E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H11">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>161.370202911619</v>
+        <v>207.3487676196581</v>
       </c>
       <c r="R11">
-        <v>161.370202911619</v>
+        <v>1866.138908576923</v>
       </c>
       <c r="S11">
-        <v>6.073659438555705E-05</v>
+        <v>7.482226774072299E-05</v>
       </c>
       <c r="T11">
-        <v>6.073659438555705E-05</v>
+        <v>7.482226774072302E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H12">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>61.26349730721217</v>
+        <v>83.18578776449779</v>
       </c>
       <c r="R12">
-        <v>61.26349730721217</v>
+        <v>748.6720898804801</v>
       </c>
       <c r="S12">
-        <v>2.305838450625692E-05</v>
+        <v>3.001777804513037E-05</v>
       </c>
       <c r="T12">
-        <v>2.305838450625692E-05</v>
+        <v>3.001777804513038E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H13">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>139.0452402374289</v>
+        <v>183.5192774529678</v>
       </c>
       <c r="R13">
-        <v>139.0452402374289</v>
+        <v>1651.67349707671</v>
       </c>
       <c r="S13">
-        <v>5.233391422435265E-05</v>
+        <v>6.622334278039933E-05</v>
       </c>
       <c r="T13">
-        <v>5.233391422435265E-05</v>
+        <v>6.622334278039934E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H14">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>7772.619527480424</v>
+        <v>9269.034737816102</v>
       </c>
       <c r="R14">
-        <v>7772.619527480424</v>
+        <v>83421.31264034491</v>
       </c>
       <c r="S14">
-        <v>0.002925462266490387</v>
+        <v>0.003344751969411691</v>
       </c>
       <c r="T14">
-        <v>0.002925462266490387</v>
+        <v>0.003344751969411692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H15">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>14310.36322115446</v>
+        <v>15269.93921370223</v>
       </c>
       <c r="R15">
-        <v>14310.36322115446</v>
+        <v>137429.4529233201</v>
       </c>
       <c r="S15">
-        <v>0.005386141374249152</v>
+        <v>0.005510191805566697</v>
       </c>
       <c r="T15">
-        <v>0.005386141374249152</v>
+        <v>0.005510191805566698</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H16">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>5432.867300443234</v>
+        <v>6126.112719116002</v>
       </c>
       <c r="R16">
-        <v>5432.867300443234</v>
+        <v>55135.01447204401</v>
       </c>
       <c r="S16">
-        <v>0.002044825200835254</v>
+        <v>0.002210621511483194</v>
       </c>
       <c r="T16">
-        <v>0.002044825200835254</v>
+        <v>0.002210621511483194</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H17">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>12330.57811211948</v>
+        <v>13515.04638016325</v>
       </c>
       <c r="R17">
-        <v>12330.57811211948</v>
+        <v>121635.4174214693</v>
       </c>
       <c r="S17">
-        <v>0.004640988905153721</v>
+        <v>0.004876934791528478</v>
       </c>
       <c r="T17">
-        <v>0.004640988905153721</v>
+        <v>0.004876934791528478</v>
       </c>
     </row>
   </sheetData>
